--- a/CSV Files/Clusters Evaluation results/GOLD vs Clusters - gold standards as centriodsWithTfIDf.xlsx
+++ b/CSV Files/Clusters Evaluation results/GOLD vs Clusters - gold standards as centriodsWithTfIDf.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USERS-Load\PycharmProjects\pythonProject\CSV Files\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USERS-Load\PycharmProjects\pythonProject\CSV Files\Clusters Evaluation results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F0C1B1-86C3-4BB2-ADE2-66DA39FB00E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1296F693-6C22-40C3-817B-219D016819DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,7 +374,7 @@
     <t>(29)/57 = 50.8%</t>
   </si>
   <si>
-    <t>Gold standard Id</t>
+    <t>GOLDStandards</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
   <dimension ref="A1:AG96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CSV Files/Clusters Evaluation results/GOLD vs Clusters - gold standards as centriodsWithTfIDf.xlsx
+++ b/CSV Files/Clusters Evaluation results/GOLD vs Clusters - gold standards as centriodsWithTfIDf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USERS-Load\PycharmProjects\pythonProject\CSV Files\Clusters Evaluation results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1296F693-6C22-40C3-817B-219D016819DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C31AE0-CACC-4363-87D6-45EEC92AD3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -746,12 +746,12 @@
   <dimension ref="A1:AG96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="96.6640625" customWidth="1"/>
+    <col min="3" max="3" width="104.109375" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" customWidth="1"/>
